--- a/Table/Period_top5.xlsx
+++ b/Table/Period_top5.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gogyeongtae/Library/CloudStorage/Dropbox/KNU_Lab_Research/2023_ASF/Github/ASF_statisticalmodel/Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9ACB8-8ED9-E049-AA6B-6D4283B6985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0635A3EB-B4FB-354D-9BFA-AA6ECB73D4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="1280" windowWidth="41660" windowHeight="23480" xr2:uid="{9AC752AE-A1B7-8949-AF6A-0306831D865A}"/>
+    <workbookView xWindow="5280" yWindow="3060" windowWidth="41660" windowHeight="23480" activeTab="2" xr2:uid="{9AC752AE-A1B7-8949-AF6A-0306831D865A}"/>
   </bookViews>
   <sheets>
     <sheet name="Period1" sheetId="1" r:id="rId1"/>
     <sheet name="Period2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table1-Figure6" sheetId="4" r:id="rId3"/>
+    <sheet name="Table2-Figure7" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Detection 100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detection 80%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detection 67%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>43130 (Chungju)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +102,177 @@
   </si>
   <si>
     <t>Detection 50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection 100% / 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection 80% / 67%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection 67% / 50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongwol (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongju (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yecheon (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonghwa (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoengseong (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongwol (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yecheon (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mungyeong (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju (2)</t>
+  </si>
+  <si>
+    <t>Wonju (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munkyeong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danyang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonghwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carcasses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yeongwol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munkyeong (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munkyeong* (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonghwa (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju* (13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samcheok* (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju* (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danyang* (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju* (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wonju* (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samcheok (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangju (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danyang (7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chungju (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taebaek (3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -237,13 +398,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,7 +465,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,23 +817,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A363435-D733-5C42-B2B0-BA96EC942793}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1">
+    <row r="1" spans="1:9" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,148 +841,154 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -784,23 +999,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4E5309-0DC6-A94B-8DD3-AF4451A4E6E7}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19" thickBot="1">
+    <row r="1" spans="1:10" ht="19" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,149 +1023,577 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BC4383-2063-334E-91A4-38D6EB3D6E8F}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" thickBot="1">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEFB825-B8DF-2B47-B960-58339BDA18E1}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D11" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="19" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
